--- a/Person/赵婧瑜/任务四.xlsx
+++ b/Person/赵婧瑜/任务四.xlsx
@@ -8,13 +8,120 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="user Module" sheetId="2" r:id="rId2"/>
+    <sheet name="PROJECT VISION" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="RLSevirity">[1]SETUP!$O$2:$O$5</definedName>
+    <definedName name="RLStatus">[1]SETUP!$Q$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Luc Segers</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the project</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the descript of the Vision</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the customer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Luc Segers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert the name of the supplier</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>引用编号</t>
   </si>
@@ -134,6 +241,63 @@
   </si>
   <si>
     <t>作为登陆者，我希望能够通过QQ登录，以便于更快捷的登录系统，而省去注册环节。</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>养宠人士</t>
+  </si>
+  <si>
+    <t>喜欢养宠物，并且有充足的时间关心自己宠物生活和健康的用户</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>管理用户信息，可以删除不符合要求的信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>吾宠</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>打造增加人宠交流，丰富宠物生活的APP</t>
+  </si>
+  <si>
+    <t>analysis of profit</t>
+  </si>
+  <si>
+    <t>用户可以报名参加宠物活动</t>
   </si>
 </sst>
 </file>
@@ -141,17 +305,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="0.00;\-0.00;;@\ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="179" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="180" formatCode="0.00;\-0.00;;@\ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,9 +324,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -170,8 +369,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,6 +383,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -189,10 +412,66 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -204,6 +483,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +542,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,133 +562,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,37 +624,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,162 +822,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -588,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -597,10 +842,177 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="9"/>
       </left>
       <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -619,36 +1031,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -793,9 +1175,89 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,101 +1285,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,16 +1308,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,14 +1326,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,199 +1345,287 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="25" fillId="37" borderId="23" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="26" fillId="21" borderId="31" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="23" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="31" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="39" borderId="23">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="43" borderId="31">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="56" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="56" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="56"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="56" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="56" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="56"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="19" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="4" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="8" borderId="11" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="20" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="12" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="8" borderId="23" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="56" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="25" xfId="56" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="56" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,6 +1694,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PEOJECT VISION"/>
+      <sheetName val="PROJECT FLOW"/>
+      <sheetName val="PROJECT DASHBOARD"/>
+      <sheetName val="User Model"/>
+      <sheetName val="PROJECT BACKLOG"/>
+      <sheetName val="SPRINT 1"/>
+      <sheetName val="SPRINT 2"/>
+      <sheetName val="RISK LOG"/>
+      <sheetName val="IMPEDIMENTS LOG"/>
+      <sheetName val="SPRINT RETROSPECTIVE"/>
+      <sheetName val="VELOCITY"/>
+      <sheetName val="CALENDAR"/>
+      <sheetName val="ACCEPTANCE"/>
+      <sheetName val="BUDGET"/>
+      <sheetName val="SETUP"/>
+      <sheetName val="SPRINT TEMPLATE"/>
+      <sheetName val="PRINT CARDS"/>
+      <sheetName val="CARD TEMPLATE"/>
+      <sheetName val="SYS CALC"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1486,8 +2009,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1498,500 +2021,500 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" spans="1:17">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
     <row r="2" ht="75.05" spans="1:17">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="67" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:17">
-      <c r="A3" s="10">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="57">
         <v>2</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="58">
         <v>98</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26">
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61">
         <v>2</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="33"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" ht="48.5" customHeight="1" spans="1:17">
-      <c r="A4" s="10">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="57">
         <v>1</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="58">
         <v>96</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26">
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61">
         <v>1</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="62">
         <v>0</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="33"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" ht="55" customHeight="1" spans="1:17">
-      <c r="A5" s="10">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="46">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="57">
         <v>3</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="63">
         <v>95</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31">
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66">
         <v>3</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="34"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="69"/>
     </row>
     <row r="6" ht="49.5" customHeight="1" spans="1:17">
-      <c r="A6" s="10">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="46">
         <v>1</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="57">
         <v>1</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="63">
         <v>93</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31">
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66">
         <v>1</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="62">
         <v>0</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="34"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="69"/>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:17">
-      <c r="A7" s="10">
+      <c r="A7" s="45">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="45">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="46">
         <v>1</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="57">
         <v>1</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="63">
         <v>93</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31">
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66">
         <v>2</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="62">
         <v>0</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="34"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="69"/>
     </row>
     <row r="8" ht="44.5" customHeight="1" spans="1:17">
-      <c r="A8" s="10">
+      <c r="A8" s="45">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="45">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="46">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="57">
         <v>0.5</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="63">
         <v>90</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="31">
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66">
         <v>1</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="62">
         <v>0</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="34"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="69"/>
     </row>
     <row r="9" ht="48.5" customHeight="1" spans="1:17">
-      <c r="A9" s="10">
+      <c r="A9" s="45">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="45">
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="46">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="57">
         <v>2</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="58">
         <v>90</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26">
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61">
         <v>2</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="62">
         <v>0</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="33"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="68"/>
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:17">
-      <c r="A10" s="10">
+      <c r="A10" s="45">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="45">
         <v>1</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="57">
         <v>3</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="58">
         <v>88</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26">
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61">
         <v>3</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="62">
         <v>0</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="68"/>
     </row>
     <row r="11" ht="49.5" customHeight="1" spans="1:17">
-      <c r="A11" s="10">
+      <c r="A11" s="45">
         <v>9</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="45">
         <v>1</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="46">
         <v>1</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="57">
         <v>0.5</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="58">
         <v>85</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26">
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61">
         <v>1</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="62">
         <v>0</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="33"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:17">
-      <c r="A12" s="10">
+      <c r="A12" s="45">
         <v>10</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="46">
         <v>1</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="57">
         <v>2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="58">
         <v>80</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26">
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61">
         <v>2</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="33"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="68"/>
     </row>
     <row r="13" ht="45" customHeight="1"/>
     <row r="14" ht="56" customHeight="1"/>
@@ -2010,4 +2533,407 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="47.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="32.4" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" ht="36" spans="1:6">
+      <c r="A5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" ht="24" spans="1:6">
+      <c r="A6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C19">
+      <formula1>RLStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D19">
+      <formula1>RLSevirity</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="41.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="32.4" spans="1:10">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" ht="41" customHeight="1" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="45" customHeight="1" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>